--- a/apps/reports/excell/reg_visited_template.xlsx
+++ b/apps/reports/excell/reg_visited_template.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHECK\OneDrive\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B075890F-BDC8-425F-9D82-5E88607E564A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{565AFF55-0864-4947-BD02-3D0730DA0054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -326,9 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -361,17 +369,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -399,11 +413,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +736,7 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -741,237 +752,209 @@
     <col min="13" max="14" width="9.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="1" customWidth="1"/>
-    <col min="17" max="22" width="9.140625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="23" width="9.140625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="35" t="s">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="28" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="37" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="40" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="27" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="25" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-    </row>
-    <row r="5" spans="1:16" s="17" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>3</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>5</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>6</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>7</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>8</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>9</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>10</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="20">
         <v>11</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>12</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>13</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="19">
         <v>14</v>
       </c>
-      <c r="O5" s="19">
+      <c r="O5" s="18">
         <v>15</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="15" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:16" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="16">
-        <f>SUM(C6,D6,E6)</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <f>SUM(I6,J6,K6)</f>
-        <v>3</v>
-      </c>
-      <c r="I6" s="8">
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -988,7 +971,7 @@
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="7">
@@ -1050,66 +1033,66 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="28">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B6)</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="41">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
         <f ca="1">SUM(INDIRECT("C"&amp;ROW()-1)+C6)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="41">
+        <v>0</v>
+      </c>
+      <c r="D9" s="28">
         <f ca="1">SUM(INDIRECT("D"&amp;ROW()-1)+D6)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="41">
+        <v>0</v>
+      </c>
+      <c r="E9" s="28">
         <f ca="1">SUM(INDIRECT("E"&amp;ROW()-1)+E6)</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="41">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
         <f ca="1">SUM(INDIRECT("F"&amp;ROW()-1)+F6)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="41">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
         <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+G6)</f>
-        <v>1</v>
-      </c>
-      <c r="H9" s="41">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
         <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H6)</f>
-        <v>3</v>
-      </c>
-      <c r="I9" s="41">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
         <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="41">
+        <v>0</v>
+      </c>
+      <c r="J9" s="28">
         <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J6)</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="41">
+        <v>0</v>
+      </c>
+      <c r="K9" s="28">
         <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K6)</f>
-        <v>1</v>
-      </c>
-      <c r="L9" s="41">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28">
         <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L6)</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="41">
+        <v>0</v>
+      </c>
+      <c r="M9" s="28">
         <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M6)</f>
-        <v>1</v>
-      </c>
-      <c r="N9" s="41">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
         <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N6)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="41">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
         <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O6)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="41"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -2677,6 +2660,6 @@
     <mergeCell ref="P2:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/apps/reports/excell/reg_visited_template.xlsx
+++ b/apps/reports/excell/reg_visited_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{565AFF55-0864-4947-BD02-3D0730DA0054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2538ED07-4299-4D5C-B73D-35FCB7CF93A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,14 +378,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,9 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -736,7 +736,7 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:O6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -752,82 +752,82 @@
     <col min="13" max="14" width="9.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="1" customWidth="1"/>
-    <col min="17" max="23" width="9.140625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="24" width="9.140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="36" t="s">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="29" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="38" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
       <c r="L3" s="25" t="s">
         <v>11</v>
       </c>
@@ -837,12 +837,12 @@
       <c r="N3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="23" t="s">
         <v>12</v>
       </c>
@@ -858,7 +858,7 @@
       <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="23" t="s">
@@ -879,8 +879,8 @@
       <c r="N4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
@@ -953,7 +953,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="13"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1033,66 +1033,66 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B6)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <f ca="1">SUM(INDIRECT("C"&amp;ROW()-1)+C6)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <f ca="1">SUM(INDIRECT("D"&amp;ROW()-1)+D6)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <f ca="1">SUM(INDIRECT("E"&amp;ROW()-1)+E6)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <f ca="1">SUM(INDIRECT("F"&amp;ROW()-1)+F6)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+G6)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="27">
         <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H6)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="27">
         <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="27">
         <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J6)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="27">
         <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K6)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="27">
         <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L6)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="27">
         <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M6)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="27">
         <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N6)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="27">
         <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O6)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="28"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
@@ -2660,6 +2660,6 @@
     <mergeCell ref="P2:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" fitToWidth="0" orientation="portrait"/>
 </worksheet>
 </file>
--- a/apps/reports/excell/reg_visited_template.xlsx
+++ b/apps/reports/excell/reg_visited_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2538ED07-4299-4D5C-B73D-35FCB7CF93A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C2B8E9-6817-4F2B-B3D6-983E03B4ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,11 +384,11 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -736,24 +736,23 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="4" customWidth="1"/>
-    <col min="9" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="4" customWidth="1"/>
+    <col min="3" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="1" customWidth="1"/>
     <col min="13" max="14" width="9.42578125" style="3" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" style="1" customWidth="1"/>
-    <col min="17" max="24" width="9.140625" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="25" width="9.140625" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -858,7 +857,7 @@
       <c r="G4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="23" t="s">
@@ -953,7 +952,7 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="13"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>

--- a/apps/reports/excell/reg_visited_template.xlsx
+++ b/apps/reports/excell/reg_visited_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C2B8E9-6817-4F2B-B3D6-983E03B4ADF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1249E502-727F-4D57-97BC-17C82CB596AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,9 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,9 +360,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,12 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -414,6 +408,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,7 +742,7 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -756,186 +762,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="37" t="s">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="30" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="39" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="36" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="25" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="25" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
     </row>
     <row r="4" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="23" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+    </row>
+    <row r="5" spans="1:16" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>3</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="40">
         <v>6</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="40">
         <v>7</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>8</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>9</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>10</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>11</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="40">
         <v>12</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="40">
         <v>13</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="40">
         <v>14</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <v>15</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="16">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="14" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:16" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -952,25 +958,25 @@
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="10"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="7">
@@ -1032,66 +1038,66 @@
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="23">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B6)</f>
         <v>0</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="23">
         <f ca="1">SUM(INDIRECT("C"&amp;ROW()-1)+C6)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="23">
         <f ca="1">SUM(INDIRECT("D"&amp;ROW()-1)+D6)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="23">
         <f ca="1">SUM(INDIRECT("E"&amp;ROW()-1)+E6)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="23">
         <f ca="1">SUM(INDIRECT("F"&amp;ROW()-1)+F6)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="23">
         <f ca="1">SUM(INDIRECT("G"&amp;ROW()-1)+G6)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="23">
         <f ca="1">SUM(INDIRECT("H"&amp;ROW()-1)+H6)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="23">
         <f ca="1">SUM(INDIRECT("I"&amp;ROW()-1)+I6)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="23">
         <f ca="1">SUM(INDIRECT("J"&amp;ROW()-1)+J6)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="23">
         <f ca="1">SUM(INDIRECT("K"&amp;ROW()-1)+K6)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="23">
         <f ca="1">SUM(INDIRECT("L"&amp;ROW()-1)+L6)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M9" s="23">
         <f ca="1">SUM(INDIRECT("M"&amp;ROW()-1)+M6)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="23">
         <f ca="1">SUM(INDIRECT("N"&amp;ROW()-1)+N6)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="23">
         <f ca="1">SUM(INDIRECT("O"&amp;ROW()-1)+O6)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="27"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>

--- a/apps/reports/excell/reg_visited_template.xlsx
+++ b/apps/reports/excell/reg_visited_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1249E502-727F-4D57-97BC-17C82CB596AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF168BF-2B2E-4312-8A2D-849EBD6975F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,13 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
-  <si>
-    <t>УЧЁТ СОСТАВА ПОЛЬЗОВАТЕЛЕЙ И ПОСЕЩАЕМОСТИ БИБЛИОТЕКИ за</t>
-  </si>
-  <si>
-    <t>2025 г.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Числа месяца</t>
   </si>
@@ -313,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -384,6 +378,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,28 +404,19 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -742,7 +739,7 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -762,130 +759,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="33" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+    </row>
+    <row r="2" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-    </row>
-    <row r="2" spans="1:16" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26" t="s">
+      <c r="P2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="35" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="C3" s="35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="32" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="G3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="38" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="M3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="N3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="38" t="s">
+      <c r="D4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="E4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-    </row>
-    <row r="4" spans="1:16" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="21" t="s">
+      <c r="K4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="L4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="M4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="N4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
     </row>
     <row r="5" spans="1:16" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
@@ -903,10 +896,10 @@
       <c r="E5" s="18">
         <v>5</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="28">
         <v>6</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="28">
         <v>7</v>
       </c>
       <c r="H5" s="19">
@@ -921,13 +914,13 @@
       <c r="K5" s="18">
         <v>11</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="28">
         <v>12</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="28">
         <v>13</v>
       </c>
-      <c r="N5" s="40">
+      <c r="N5" s="28">
         <v>14</v>
       </c>
       <c r="O5" s="17">
@@ -939,7 +932,7 @@
     </row>
     <row r="6" spans="1:16" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="8"/>
@@ -963,21 +956,21 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="11"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="10"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7">
         <f ca="1">SUM(INDIRECT("B7:B"&amp;ROW()-1))</f>
@@ -1039,7 +1032,7 @@
     </row>
     <row r="9" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="23">
         <f ca="1">SUM(INDIRECT("B"&amp;ROW()-1)+B6)</f>

--- a/apps/reports/excell/reg_visited_template.xlsx
+++ b/apps/reports/excell/reg_visited_template.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django\erp\backend\ERP\apps\reports\excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ERP\apps\reports\excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF168BF-2B2E-4312-8A2D-849EBD6975F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A5B2FD-0FAE-4ACB-A715-10B59F247425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Число пользователей+посещения" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -739,7 +728,10 @@
   <dimension ref="A1:P203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <pane xSplit="16" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
